--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC24_Verify_PlaceOrder_LoggedIn.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC24_Verify_PlaceOrder_LoggedIn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Rohit\Automation\Demo\Kaman\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\ECTEST_Change_branch\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ACD823-13E2-483B-B227-57CA98F0B0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC5285-714C-462C-97C3-302A7C268552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
   <si>
     <t>TestCase</t>
   </si>
@@ -65,12 +65,6 @@
     <t>CLICK</t>
   </si>
   <si>
-    <t>bep-dvlp@kaman.com</t>
-  </si>
-  <si>
-    <t>bep999</t>
-  </si>
-  <si>
     <t>AccModel</t>
   </si>
   <si>
@@ -363,6 +357,12 @@
   </si>
   <si>
     <t>$BaseURL</t>
+  </si>
+  <si>
+    <t>$Managed_Username</t>
+  </si>
+  <si>
+    <t>$Managed_Password</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -853,10 +853,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -868,10 +868,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -896,7 +896,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -918,10 +918,10 @@
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -934,10 +934,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -947,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -973,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -983,7 +983,7 @@
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3"/>
@@ -992,7 +992,7 @@
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
@@ -1004,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -1014,7 +1014,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1026,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -1039,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -1062,7 +1062,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
@@ -1100,13 +1100,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1115,7 +1115,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -1125,7 +1125,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1134,7 +1134,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1156,82 +1156,82 @@
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1240,7 +1240,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1249,7 +1249,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -1274,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1289,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1304,19 +1304,19 @@
         <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1328,7 +1328,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -1341,28 +1341,28 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
@@ -1384,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -1400,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1441,12 +1441,12 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -1470,103 +1470,103 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>1</v>
@@ -1574,15 +1574,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1662,15 +1662,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="3" t="b">
         <v>1</v>
@@ -1686,63 +1686,63 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3">
         <v>75230</v>
@@ -1750,15 +1750,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3">
         <v>8976553355</v>
@@ -1766,15 +1766,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="3" t="b">
         <v>1</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="3" t="b">
         <v>1</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="3" t="b">
         <v>1</v>
@@ -1798,15 +1798,15 @@
     </row>
     <row r="49" spans="1:2" ht="13.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3">
         <v>12</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3">
         <v>26</v>
@@ -1822,15 +1822,15 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="3">
         <v>123</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" s="3" t="b">
         <v>1</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="3" t="b">
         <v>1</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B56" s="3" t="b">
         <v>1</v>
@@ -1862,34 +1862,19 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B35" r:id="rId1" xr:uid="{B50A9604-94B6-4526-8108-4709AC2CB0E8}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://192.168.15.18/storeus" xr:uid="{E765EB98-44B8-4AE2-A776-704C8442AFDB}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
